--- a/data/eval/combined_data拷貝.xlsx
+++ b/data/eval/combined_data拷貝.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huai/Documents/NCU/WIDM/CCG/CCG-QLora/Finetuning_CCG/data/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D5F9CD-DB98-774F-9692-A2B1E4B8B2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C972BE-C8E9-1E4D-9095-3C43D59A0BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="3460" windowWidth="44300" windowHeight="25340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -191,6 +191,10 @@
     <t>數值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>GPT-finetuning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -377,15 +381,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="188">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -396,8 +406,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -408,8 +417,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -420,8 +428,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -432,8 +439,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -444,8 +450,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -456,8 +461,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -468,8 +472,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -480,14 +483,225 @@
     </dxf>
     <dxf>
       <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
       </font>
     </dxf>
     <dxf>
@@ -616,6 +830,272 @@
         <b val="0"/>
         <i val="0"/>
         <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -57526,169 +58006,169 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:I4">
-    <cfRule type="top10" dxfId="102" priority="273" rank="1"/>
+    <cfRule type="top10" dxfId="187" priority="273" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:I5">
-    <cfRule type="top10" dxfId="101" priority="272" rank="1"/>
+    <cfRule type="top10" dxfId="186" priority="272" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:I6">
-    <cfRule type="top10" dxfId="100" priority="271" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="271" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I7">
-    <cfRule type="top10" dxfId="99" priority="270" rank="1"/>
+    <cfRule type="top10" dxfId="184" priority="270" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I8">
-    <cfRule type="top10" dxfId="98" priority="269" rank="1"/>
+    <cfRule type="top10" dxfId="183" priority="269" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:I9">
-    <cfRule type="top10" dxfId="97" priority="268" rank="1"/>
+    <cfRule type="top10" dxfId="182" priority="268" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10">
-    <cfRule type="top10" dxfId="96" priority="267" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="267" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:I11">
-    <cfRule type="top10" dxfId="95" priority="266" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="180" priority="266" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I12">
-    <cfRule type="top10" dxfId="94" priority="265" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="265" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:I13">
-    <cfRule type="top10" dxfId="93" priority="264" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="178" priority="264" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14">
-    <cfRule type="top10" dxfId="92" priority="263" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="263" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15">
-    <cfRule type="top10" dxfId="91" priority="262" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="176" priority="262" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:I16">
-    <cfRule type="top10" dxfId="90" priority="261" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="261" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:I17">
-    <cfRule type="top10" dxfId="89" priority="260" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="260" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:I18">
-    <cfRule type="top10" dxfId="88" priority="259" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="259" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:I19">
-    <cfRule type="top10" dxfId="87" priority="258" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="172" priority="258" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:I20">
-    <cfRule type="top10" dxfId="86" priority="257" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="171" priority="257" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:I21">
-    <cfRule type="top10" dxfId="85" priority="276" rank="1"/>
+    <cfRule type="top10" dxfId="170" priority="276" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:I22">
-    <cfRule type="top10" dxfId="84" priority="256" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="169" priority="256" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M3 O3">
-    <cfRule type="top10" dxfId="83" priority="112" rank="1"/>
+    <cfRule type="top10" dxfId="168" priority="112" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M3">
-    <cfRule type="top10" dxfId="82" priority="135" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="135" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:M4">
-    <cfRule type="top10" dxfId="81" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="166" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:M9 O4:O9">
-    <cfRule type="top10" dxfId="80" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="165" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:M5">
-    <cfRule type="top10" dxfId="79" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="164" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:M6">
-    <cfRule type="top10" dxfId="78" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="163" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:M7">
-    <cfRule type="top10" dxfId="77" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="162" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:M8">
-    <cfRule type="top10" dxfId="76" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:M9">
-    <cfRule type="top10" dxfId="75" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="160" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:M10">
-    <cfRule type="top10" dxfId="74" priority="97" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="97" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:M11">
-    <cfRule type="top10" dxfId="73" priority="32" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="158" priority="32" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:M12">
-    <cfRule type="top10" dxfId="72" priority="30" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="30" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M13">
-    <cfRule type="top10" dxfId="71" priority="28" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="156" priority="28" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:M14">
-    <cfRule type="top10" dxfId="70" priority="26" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="26" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:M15">
-    <cfRule type="top10" dxfId="69" priority="24" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="154" priority="24" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:M16">
-    <cfRule type="top10" dxfId="68" priority="22" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="153" priority="22" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:M17">
-    <cfRule type="top10" dxfId="67" priority="20" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="20" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:M18">
-    <cfRule type="top10" dxfId="66" priority="18" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="18" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:M19">
-    <cfRule type="top10" dxfId="65" priority="16" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="150" priority="16" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:M20">
-    <cfRule type="top10" dxfId="64" priority="14" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="14" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21 O21">
-    <cfRule type="top10" dxfId="63" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="148" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21">
-    <cfRule type="top10" dxfId="62" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:M22">
-    <cfRule type="top10" dxfId="61" priority="12" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="146" priority="12" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:M23">
-    <cfRule type="top10" dxfId="60" priority="115" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="115" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:O10">
-    <cfRule type="top10" dxfId="59" priority="43" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="43" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:O11">
-    <cfRule type="top10" dxfId="58" priority="31" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="31" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:O12">
-    <cfRule type="top10" dxfId="57" priority="29" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="142" priority="29" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:O13">
-    <cfRule type="top10" dxfId="56" priority="27" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="27" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:O14">
-    <cfRule type="top10" dxfId="55" priority="25" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="25" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:O15">
-    <cfRule type="top10" dxfId="54" priority="23" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="23" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:O16">
-    <cfRule type="top10" dxfId="53" priority="21" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="21" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="52" priority="19" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="19" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:O18">
-    <cfRule type="top10" dxfId="51" priority="17" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="17" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O19">
-    <cfRule type="top10" dxfId="50" priority="15" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="15" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:O20">
-    <cfRule type="top10" dxfId="49" priority="13" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="13" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:O22">
-    <cfRule type="top10" dxfId="48" priority="11" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="11" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -57699,13 +58179,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6335184-F029-EB43-9BBB-6490B5FD4040}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="250" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="250" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="9" max="9" width="11" style="24"/>
+    <col min="14" max="14" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1">
@@ -57733,10 +58215,9 @@
         <v>44</v>
       </c>
       <c r="M1" s="20"/>
-      <c r="N1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="20"/>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="B2" s="7" t="s">
@@ -57765,8 +58246,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
@@ -57775,44 +58255,45 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.99358974358974361</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.9928057553956835</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.26666666666666672</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.78064516129032258</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0.10144927536231881</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0.93893129770992367</v>
-      </c>
-      <c r="N3" s="11">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11">
-        <v>1</v>
+      <c r="C3">
+        <v>0.161</v>
+      </c>
+      <c r="D3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.751</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N3">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="O3">
+        <f>E3</f>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -57820,44 +58301,45 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.67038403913887368</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.68387548065529857</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.75859917429750801</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.78884518141822724</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.82465294546707213</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.82309006280328867</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.76008280659661831</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.48475668217165219</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.59632410568259508</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.54846926888761327</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0.62650600390397559</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.75859917429750801</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.97398999051133972</v>
+      <c r="C4">
+        <v>0.19</v>
+      </c>
+      <c r="D4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.628</v>
+      </c>
+      <c r="H4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.377</v>
+      </c>
+      <c r="M4">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N4">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O22" si="0">E4</f>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -57865,44 +58347,45 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.89719626168224298</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.88868686868686897</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.93457943925233644</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.94623655913978499</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.93814432989690721</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.93457943925233644</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.8783783783783784</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.85849056603773588</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.48</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0.92045454545454541</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0.88868686868686897</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.97142857142857142</v>
+      <c r="C5">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.876</v>
+      </c>
+      <c r="F5">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -57910,44 +58393,45 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.79976812581320944</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.28616732294732983</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.32567889999999999</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.38518982773253713</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.29308590543564522</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.28475589682843472</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.29662082823073321</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.25909797829337239</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.40829701323238909</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.34583083207246662</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0.28201711289585119</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0.32567889999999999</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.71132147395754775</v>
+      <c r="C6">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.81</v>
+      </c>
+      <c r="E6">
+        <v>0.82</v>
+      </c>
+      <c r="F6">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K6">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="L6">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -57955,44 +58439,45 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.8125</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.73333333333333328</v>
+      <c r="C7">
+        <v>0.85</v>
+      </c>
+      <c r="D7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.876</v>
+      </c>
+      <c r="G7">
+        <v>0.378</v>
+      </c>
+      <c r="H7">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.87</v>
+      </c>
+      <c r="K7">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -58000,44 +58485,45 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.85436893203883491</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.86538461538461542</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.86274509803921573</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.93203883495145634</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0.95121951219512191</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0.98484848484848486</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0.86538461538461542</v>
-      </c>
-      <c r="O8" s="11">
-        <v>1</v>
+      <c r="C8">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F8">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K8">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="M8">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1">
@@ -58045,44 +58531,45 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.97927461139896377</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.95336787564766834</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0.97409326424870468</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0.98445595854922274</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0.98445595854922274</v>
+      <c r="C9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" thickTop="1">
@@ -58092,44 +58579,45 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.93782383419689119</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.73575129533678751</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.7409326424870466</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.83419689119170981</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.79274611398963735</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.74611398963730569</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.76683937823834192</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.89637305699481862</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.75647668393782386</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0.9015544041450777</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0.79792746113989632</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0.7409326424870466</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.99481865284974091</v>
+      <c r="C10">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D10">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="N10">
+        <v>0.995</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -58137,44 +58625,45 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11">
-        <v>0.52849740932642486</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.86010362694300513</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.66321243523316065</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.87564766839378239</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.78756476683937826</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.84974093264248707</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.81865284974093266</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.51295336787564771</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0.57512953367875652</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.53886010362694303</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0.72020725388601037</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0.66321243523316065</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0.95336787564766834</v>
+      <c r="C11">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.86</v>
+      </c>
+      <c r="E11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="J11">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.72</v>
+      </c>
+      <c r="N11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -58182,44 +58671,45 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
-        <v>0.80310880829015541</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.8704663212435233</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.86528497409326421</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.93782383419689119</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.83419689119170981</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.88601036269430056</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.79274611398963735</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0.87564766839378239</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0.86528497409326421</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.86528497409326421</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.99481865284974091</v>
+      <c r="C12">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.87</v>
+      </c>
+      <c r="E12">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H12">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L12">
+        <v>0.876</v>
+      </c>
+      <c r="M12">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.995</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -58227,44 +58717,45 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
-        <v>0.91191709844559588</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.72020725388601037</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.90673575129533679</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.94300518134715028</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.95336787564766834</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.89637305699481862</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.9689119170984456</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.9689119170984456</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.97927461139896377</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0.96373056994818651</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0.94300518134715028</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0.90673575129533679</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0.99481865284974091</v>
+      <c r="C13">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.72</v>
+      </c>
+      <c r="E13">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K13">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L13">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="M13">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N13">
+        <v>0.995</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -58272,44 +58763,45 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
-        <v>0.47668393782383423</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.9689119170984456</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.91709844559585496</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.95336787564766834</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.91191709844559588</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.93264248704663211</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.97927461139896377</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.77720207253886009</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0.92227979274611394</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0.72538860103626945</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0.94300518134715028</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0.91709844559585496</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0.97927461139896377</v>
+      <c r="C14">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F14">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -58317,44 +58809,45 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11">
-        <v>0.34715025906735753</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.50259067357512954</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.84455958549222798</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.53886010362694303</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.40932642487046628</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0.81865284974093266</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.41968911917098439</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.49740932642487051</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0.66321243523316065</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0.47150259067357508</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0.6424870466321243</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0.84455958549222798</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0.95336787564766834</v>
+      <c r="C15">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.503</v>
+      </c>
+      <c r="E15">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H15">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="J15">
+        <v>0.497</v>
+      </c>
+      <c r="K15">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="L15">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="M15">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -58362,44 +58855,45 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11">
-        <v>0.18134715025906739</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.75647668393782386</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.73056994818652854</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.772020725388601</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.71502590673575128</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.7098445595854922</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0.80310880829015541</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0.56994818652849744</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0.73575129533678751</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0.51295336787564771</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0.78756476683937826</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0.73056994818652854</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0.92227979274611394</v>
+      <c r="C16">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K16">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="N16">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -58407,44 +58901,45 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11">
-        <v>0.93782383419689119</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.65284974093264247</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.53886010362694303</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.66321243523316065</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.67875647668393779</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0.58549222797927458</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.78756476683937826</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.76165803108808294</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0.70466321243523311</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.72020725388601037</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0.7409326424870466</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0.53886010362694303</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0.98963730569948183</v>
+      <c r="C17">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D17">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F17">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J17">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.72</v>
+      </c>
+      <c r="M17">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.99</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -58452,44 +58947,45 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.96373056994818651</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.9689119170984456</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.96373056994818651</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0.95336787564766834</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0.97409326424870468</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0.9689119170984456</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0.96373056994818651</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0.9689119170984456</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0.97409326424870468</v>
+      <c r="C18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H18">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M18">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N18">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -58497,44 +58993,45 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11">
-        <v>0.94818652849740936</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.94818652849740936</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.95336787564766834</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.94300518134715028</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0.94818652849740936</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.94818652849740936</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.94818652849740936</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0.97927461139896377</v>
+      <c r="C19">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D19">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F19">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H19">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L19">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="M19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="N19">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
@@ -58542,44 +59039,45 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.97927461139896377</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.97409326424870468</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.97409326424870468</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0.97927461139896377</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.95854922279792742</v>
-      </c>
-      <c r="M20" s="11">
-        <v>0.95336787564766834</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0.97409326424870468</v>
-      </c>
-      <c r="O20" s="11">
-        <v>0.97927461139896377</v>
+      <c r="C20">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K20">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L20">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M20">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="N20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="11" customFormat="1">
@@ -58589,55 +59087,55 @@
       </c>
       <c r="C21" s="2">
         <f>ROUND(AVERAGE(C3:C9),3)</f>
-        <v>0.76</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:H21" si="0">ROUND(AVERAGE(D3:D9),3)</f>
-        <v>0.78800000000000003</v>
+        <f t="shared" ref="D21:H21" si="1">ROUND(AVERAGE(D3:D9),3)</f>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.80100000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.85</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.79100000000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.873</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.59799999999999998</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.81699999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.69699999999999995</v>
       </c>
       <c r="I21" s="3">
         <f>ROUND(AVERAGE(I3:I9),3)</f>
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" ref="J21:O21" si="1">ROUND(AVERAGE(J3:J9),3)</f>
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="1"/>
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="1"/>
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="1"/>
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="1"/>
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="1"/>
-        <v>0.91100000000000003</v>
+        <v>0.63</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:N21" si="2">ROUND(AVERAGE(J3:J9),3)</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0.748</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1" ht="15" thickBot="1">
@@ -58650,189 +59148,242 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:H22" si="2">ROUND(AVERAGE(D10:D20),3)</f>
+        <f t="shared" ref="D22:H22" si="3">ROUND(AVERAGE(D10:D20),3)</f>
         <v>0.81399999999999995</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82799999999999996</v>
+        <f t="shared" si="3"/>
+        <v>0.82599999999999996</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.85699999999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.84299999999999997</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82199999999999995</v>
+        <f t="shared" si="3"/>
+        <v>0.82299999999999995</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.85099999999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.85599999999999998</v>
       </c>
       <c r="I22" s="3">
         <f>ROUND(AVERAGE(I10:I20),3)</f>
         <v>0.84399999999999997</v>
       </c>
-      <c r="J22" s="11">
-        <f t="shared" ref="J22:O22" si="3">ROUND(AVERAGE(J10:J20),3)</f>
+      <c r="J22">
+        <f t="shared" ref="J22:N22" si="4">ROUND(AVERAGE(J10:J20),3)</f>
         <v>0.79600000000000004</v>
       </c>
-      <c r="K22" s="11">
-        <f t="shared" si="3"/>
+      <c r="K22">
+        <f t="shared" si="4"/>
         <v>0.81899999999999995</v>
       </c>
-      <c r="L22" s="11">
-        <f t="shared" si="3"/>
+      <c r="L22">
+        <f t="shared" si="4"/>
         <v>0.78</v>
       </c>
-      <c r="M22" s="11">
-        <f t="shared" si="3"/>
+      <c r="M22">
+        <f t="shared" si="4"/>
         <v>0.84699999999999998</v>
       </c>
-      <c r="N22" s="11">
-        <f t="shared" si="3"/>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="O22" s="11">
-        <f t="shared" si="3"/>
+      <c r="N22">
+        <f t="shared" si="4"/>
         <v>0.97399999999999998</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A10:A20"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C21:I21">
-    <cfRule type="top10" dxfId="41" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="107" priority="102" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:I22">
-    <cfRule type="top10" dxfId="40" priority="41" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="101" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:M21 O21">
-    <cfRule type="top10" dxfId="39" priority="38" rank="1"/>
+  <conditionalFormatting sqref="C3:I3">
+    <cfRule type="top10" dxfId="102" priority="96" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:I4">
+    <cfRule type="top10" dxfId="101" priority="95" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:I5">
+    <cfRule type="top10" dxfId="100" priority="94" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:I6">
+    <cfRule type="top10" dxfId="99" priority="93" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:I7">
+    <cfRule type="top10" dxfId="98" priority="92" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:I8">
+    <cfRule type="top10" dxfId="97" priority="91" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I9">
+    <cfRule type="top10" dxfId="96" priority="90" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10">
+    <cfRule type="top10" dxfId="95" priority="89" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11">
+    <cfRule type="top10" dxfId="94" priority="88" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12">
+    <cfRule type="top10" dxfId="93" priority="87" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:I13">
+    <cfRule type="top10" dxfId="92" priority="86" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I14">
+    <cfRule type="top10" dxfId="91" priority="85" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I15">
+    <cfRule type="top10" dxfId="90" priority="84" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="top10" dxfId="89" priority="83" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:I17">
+    <cfRule type="top10" dxfId="88" priority="82" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I18">
+    <cfRule type="top10" dxfId="87" priority="81" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:I19">
+    <cfRule type="top10" dxfId="86" priority="80" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I20">
+    <cfRule type="top10" dxfId="85" priority="79" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:M3">
+    <cfRule type="top10" dxfId="83" priority="59" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:O3">
+    <cfRule type="top10" dxfId="38" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:M4">
+    <cfRule type="top10" dxfId="37" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:O4">
+    <cfRule type="top10" dxfId="36" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:M5">
+    <cfRule type="top10" dxfId="35" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:O5">
+    <cfRule type="top10" dxfId="34" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:M6">
+    <cfRule type="top10" dxfId="33" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:O6">
+    <cfRule type="top10" dxfId="32" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:M7">
+    <cfRule type="top10" dxfId="31" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:O7">
+    <cfRule type="top10" dxfId="30" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:M8">
+    <cfRule type="top10" dxfId="29" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:O8">
+    <cfRule type="top10" dxfId="28" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:M9">
+    <cfRule type="top10" dxfId="27" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:O9">
+    <cfRule type="top10" dxfId="26" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:M10">
+    <cfRule type="top10" dxfId="25" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:O10">
+    <cfRule type="top10" dxfId="24" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:M11">
+    <cfRule type="top10" dxfId="23" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:O11">
+    <cfRule type="top10" dxfId="22" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:M12">
+    <cfRule type="top10" dxfId="21" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:O12">
+    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:M13">
+    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:O13">
+    <cfRule type="top10" dxfId="18" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:M14">
+    <cfRule type="top10" dxfId="17" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:O14">
+    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:M15">
+    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:O15">
+    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:M16">
+    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:O16">
+    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:M17">
+    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:O17">
+    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:M18">
+    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:O18">
+    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:M19">
+    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:O19">
+    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:M20">
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:O20">
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21">
-    <cfRule type="top10" dxfId="38" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:O21">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:M22">
-    <cfRule type="top10" dxfId="37" priority="40" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:O22">
-    <cfRule type="top10" dxfId="36" priority="39" stopIfTrue="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I3">
-    <cfRule type="top10" dxfId="35" priority="36" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:I4">
-    <cfRule type="top10" dxfId="34" priority="35" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5">
-    <cfRule type="top10" dxfId="33" priority="34" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:I6">
-    <cfRule type="top10" dxfId="32" priority="33" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:I7">
-    <cfRule type="top10" dxfId="31" priority="32" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:I8">
-    <cfRule type="top10" dxfId="30" priority="31" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:I9">
-    <cfRule type="top10" dxfId="29" priority="30" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:I10">
-    <cfRule type="top10" dxfId="28" priority="29" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:I11">
-    <cfRule type="top10" dxfId="27" priority="28" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I12">
-    <cfRule type="top10" dxfId="26" priority="27" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:I13">
-    <cfRule type="top10" dxfId="25" priority="26" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:I14">
-    <cfRule type="top10" dxfId="24" priority="25" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I15">
-    <cfRule type="top10" dxfId="23" priority="24" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:I16">
-    <cfRule type="top10" dxfId="22" priority="23" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:I17">
-    <cfRule type="top10" dxfId="21" priority="22" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:I18">
-    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:I19">
-    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:I20">
-    <cfRule type="top10" dxfId="18" priority="19" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="17" priority="18" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
-    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/eval/combined_data拷貝.xlsx
+++ b/data/eval/combined_data拷貝.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huai/Documents/NCU/WIDM/CCG/CCG-QLora/Finetuning_CCG/data/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C972BE-C8E9-1E4D-9095-3C43D59A0BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA5735-47D9-EC44-AABB-B83B50ABAB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="3460" windowWidth="44300" windowHeight="25340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="5220" windowWidth="45480" windowHeight="22580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -192,18 +192,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GPT-finetuning</t>
+    <t>pre-trained</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine-tune</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +227,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -375,333 +387,54 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="225">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
       </font>
     </dxf>
     <dxf>
@@ -820,39 +553,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
       </font>
     </dxf>
     <dxf>
@@ -971,41 +673,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
       </font>
     </dxf>
     <dxf>
@@ -1124,16 +793,624 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <u/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
-        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -2610,7 +2887,7 @@
   <dimension ref="A1:O1032213"/>
   <sheetViews>
     <sheetView zoomScale="267" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -58006,169 +58283,169 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:I4">
-    <cfRule type="top10" dxfId="187" priority="273" rank="1"/>
+    <cfRule type="top10" dxfId="224" priority="273" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:I5">
-    <cfRule type="top10" dxfId="186" priority="272" rank="1"/>
+    <cfRule type="top10" dxfId="223" priority="272" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:I6">
-    <cfRule type="top10" dxfId="185" priority="271" rank="1"/>
+    <cfRule type="top10" dxfId="222" priority="271" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:I7">
-    <cfRule type="top10" dxfId="184" priority="270" rank="1"/>
+    <cfRule type="top10" dxfId="221" priority="270" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I8">
-    <cfRule type="top10" dxfId="183" priority="269" rank="1"/>
+    <cfRule type="top10" dxfId="220" priority="269" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:I9">
-    <cfRule type="top10" dxfId="182" priority="268" rank="1"/>
+    <cfRule type="top10" dxfId="219" priority="268" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10">
-    <cfRule type="top10" dxfId="181" priority="267" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="218" priority="267" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:I11">
-    <cfRule type="top10" dxfId="180" priority="266" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="217" priority="266" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I12">
-    <cfRule type="top10" dxfId="179" priority="265" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="216" priority="265" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:I13">
-    <cfRule type="top10" dxfId="178" priority="264" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="215" priority="264" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14">
-    <cfRule type="top10" dxfId="177" priority="263" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="214" priority="263" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:I15">
-    <cfRule type="top10" dxfId="176" priority="262" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="213" priority="262" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:I16">
-    <cfRule type="top10" dxfId="175" priority="261" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="212" priority="261" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:I17">
-    <cfRule type="top10" dxfId="174" priority="260" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="211" priority="260" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:I18">
-    <cfRule type="top10" dxfId="173" priority="259" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="210" priority="259" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:I19">
-    <cfRule type="top10" dxfId="172" priority="258" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="209" priority="258" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:I20">
-    <cfRule type="top10" dxfId="171" priority="257" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="208" priority="257" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:I21">
-    <cfRule type="top10" dxfId="170" priority="276" rank="1"/>
+    <cfRule type="top10" dxfId="207" priority="276" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:I22">
-    <cfRule type="top10" dxfId="169" priority="256" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="206" priority="256" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M3 O3">
-    <cfRule type="top10" dxfId="168" priority="112" rank="1"/>
+    <cfRule type="top10" dxfId="205" priority="112" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M3">
-    <cfRule type="top10" dxfId="167" priority="135" rank="1"/>
+    <cfRule type="top10" dxfId="204" priority="135" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:M4">
-    <cfRule type="top10" dxfId="166" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="203" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:M9 O4:O9">
-    <cfRule type="top10" dxfId="165" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="202" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:M5">
-    <cfRule type="top10" dxfId="164" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="201" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:M6">
-    <cfRule type="top10" dxfId="163" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="200" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:M7">
-    <cfRule type="top10" dxfId="162" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="199" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:M8">
-    <cfRule type="top10" dxfId="161" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="198" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:M9">
-    <cfRule type="top10" dxfId="160" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="197" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:M10">
-    <cfRule type="top10" dxfId="159" priority="97" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="196" priority="97" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:M11">
-    <cfRule type="top10" dxfId="158" priority="32" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="195" priority="32" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:M12">
-    <cfRule type="top10" dxfId="157" priority="30" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="194" priority="30" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M13">
-    <cfRule type="top10" dxfId="156" priority="28" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="193" priority="28" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:M14">
-    <cfRule type="top10" dxfId="155" priority="26" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="192" priority="26" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:M15">
-    <cfRule type="top10" dxfId="154" priority="24" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="191" priority="24" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:M16">
-    <cfRule type="top10" dxfId="153" priority="22" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="190" priority="22" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:M17">
-    <cfRule type="top10" dxfId="152" priority="20" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="189" priority="20" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:M18">
-    <cfRule type="top10" dxfId="151" priority="18" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="188" priority="18" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:M19">
-    <cfRule type="top10" dxfId="150" priority="16" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="187" priority="16" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:M20">
-    <cfRule type="top10" dxfId="149" priority="14" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="186" priority="14" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21 O21">
-    <cfRule type="top10" dxfId="148" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21">
-    <cfRule type="top10" dxfId="147" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="184" priority="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:M22">
-    <cfRule type="top10" dxfId="146" priority="12" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="183" priority="12" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:M23">
-    <cfRule type="top10" dxfId="145" priority="115" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="182" priority="115" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:O10">
-    <cfRule type="top10" dxfId="144" priority="43" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="43" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:O11">
-    <cfRule type="top10" dxfId="143" priority="31" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="180" priority="31" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:O12">
-    <cfRule type="top10" dxfId="142" priority="29" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="29" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:O13">
-    <cfRule type="top10" dxfId="141" priority="27" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="178" priority="27" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:O14">
-    <cfRule type="top10" dxfId="140" priority="25" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="25" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:O15">
-    <cfRule type="top10" dxfId="139" priority="23" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="176" priority="23" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:O16">
-    <cfRule type="top10" dxfId="138" priority="21" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="21" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="137" priority="19" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="19" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:O18">
-    <cfRule type="top10" dxfId="136" priority="17" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="17" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:O19">
-    <cfRule type="top10" dxfId="135" priority="15" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="172" priority="15" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:O20">
-    <cfRule type="top10" dxfId="134" priority="13" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="171" priority="13" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:O22">
-    <cfRule type="top10" dxfId="133" priority="11" stopIfTrue="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="170" priority="11" stopIfTrue="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -58179,1211 +58456,1228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6335184-F029-EB43-9BBB-6490B5FD4040}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="250" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="26.796875" customWidth="1"/>
-    <col min="9" max="9" width="11" style="24"/>
+    <col min="2" max="2" width="26.796875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11" style="22"/>
     <col min="14" max="14" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="9"/>
+      <c r="K2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>0.161</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="25">
+        <v>0.81</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.99358974358974361</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.9928057553956835</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N3" s="25">
+        <f>E3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="30">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.60806627849468686</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.68387548065529857</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.73859917429750799</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.78884518141822724</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.82465294546707213</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.82309006280328867</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.76008280659661831</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.377</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N4" s="25">
+        <f>E4</f>
+        <v>0.73859917429750799</v>
+      </c>
+      <c r="O4" s="30">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.89719626168224298</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.86868686868686895</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.93814432989690721</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="N5" s="25">
+        <f>E5</f>
+        <v>0.86868686868686895</v>
+      </c>
+      <c r="O5" s="30">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.88655061679506131</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.81</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.82</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="N6" s="25">
+        <f>E6</f>
+        <v>0.82</v>
+      </c>
+      <c r="O6" s="30">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="28"/>
+      <c r="B7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.876</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.378</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="N7" s="25">
+        <f>E7</f>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O7" s="30">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="28"/>
+      <c r="B8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.92</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.85436893203883491</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.86538461538461542</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.86274509803921573</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="N8" s="25">
+        <f>E8</f>
+        <v>0.86538461538461542</v>
+      </c>
+      <c r="O8" s="30">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="35" customFormat="1" ht="15" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N9" s="33">
+        <f>E9</f>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O9" s="34">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J10" s="25">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E3">
+      <c r="K10" s="25">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="L10" s="25">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F3">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="G3">
+      <c r="M10" s="25">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="N10" s="25">
+        <f>E10</f>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="O10" s="30">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="N11" s="25">
+        <f>E11</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="O11" s="30">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.876</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N12" s="25">
+        <f>E12</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="O12" s="30">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N13" s="25">
+        <f>E13</f>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="O13" s="30">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N14" s="25">
+        <f>E14</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.503</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.497</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N15" s="25">
+        <f>E15</f>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="N16" s="25">
+        <f>E16</f>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="M17" s="25">
         <v>0.74099999999999999</v>
       </c>
-      <c r="H3">
-        <v>0.751</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="J3">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="K3">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="L3">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="M3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="N3">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="O3">
-        <f>E3</f>
-        <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.19</v>
-      </c>
-      <c r="D4">
+      <c r="N17" s="25">
+        <f>E17</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N18" s="25">
+        <f>E18</f>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="N19" s="25">
+        <f>E19</f>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="O19" s="30">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="N20" s="25">
+        <f>E20</f>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O20" s="30">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="11" customFormat="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25">
+        <f>ROUND(AVERAGE(C3:C9),3)</f>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" ref="D21:H21" si="0">ROUND(AVERAGE(D3:D9),3)</f>
+        <v>0.874</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I21" s="25">
+        <f>ROUND(AVERAGE(I3:I9),3)</f>
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" ref="J21:N21" si="1">ROUND(AVERAGE(J3:J9),3)</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.748</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="1"/>
         <v>0.63700000000000001</v>
       </c>
-      <c r="E4">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="G4">
-        <v>0.628</v>
-      </c>
-      <c r="H4">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="J4">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="K4">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="L4">
-        <v>0.377</v>
-      </c>
-      <c r="M4">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="N4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O22" si="0">E4</f>
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E5">
-        <v>0.876</v>
-      </c>
-      <c r="F5">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="G5">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="H5">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="J5">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="K5">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="L5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M5">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="N5">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0.876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="D6">
-        <v>0.81</v>
-      </c>
-      <c r="E6">
-        <v>0.82</v>
-      </c>
-      <c r="F6">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="G6">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="H6">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="J6">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="K6">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L6">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="M6">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="N6">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.85</v>
-      </c>
-      <c r="D7">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="F7">
-        <v>0.876</v>
-      </c>
-      <c r="G7">
-        <v>0.378</v>
-      </c>
-      <c r="H7">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="J7">
-        <v>0.87</v>
-      </c>
-      <c r="K7">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="L7">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="N7">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D8">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="F8">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="G8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H8">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="J8">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="K8">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="M8">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="N8">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0.81299999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="H9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="I9" s="24">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="J9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="K9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="L9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M9">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="N9">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickTop="1">
-      <c r="A10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="D10">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="F10">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="G10">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="J10">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="K10">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="M10">
+      <c r="M21" s="25">
+        <f t="shared" si="1"/>
         <v>0.79800000000000004</v>
       </c>
-      <c r="N10">
-        <v>0.995</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.86</v>
-      </c>
-      <c r="E11">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="F11">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="H11">
-        <v>0.85</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="J11">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="L11">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="M11">
-        <v>0.72</v>
-      </c>
-      <c r="N11">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D12">
-        <v>0.87</v>
-      </c>
-      <c r="E12">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="G12">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="H12">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="J12">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K12">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="L12">
-        <v>0.876</v>
-      </c>
-      <c r="M12">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.995</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0.86499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="D13">
-        <v>0.72</v>
-      </c>
-      <c r="E13">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="F13">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="G13">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="H13">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="J13">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="K13">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="L13">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="M13">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N13">
-        <v>0.995</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="D14">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E14">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="F14">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G14">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="H14">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="J14">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="K14">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="L14">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="M14">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N14">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0.92200000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D15">
-        <v>0.503</v>
-      </c>
-      <c r="E15">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="F15">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H15">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="J15">
-        <v>0.497</v>
-      </c>
-      <c r="K15">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="L15">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="M15">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="N15">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="F16">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="G16">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="H16">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="I16" s="24">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="J16">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K16">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="L16">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="M16">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="N16">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="D17">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F17">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="G17">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H17">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="J17">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="L17">
-        <v>0.72</v>
-      </c>
-      <c r="M17">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.99</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="D18">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="E18">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="F18">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G18">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="H18">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="I18" s="24">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="J18">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="K18">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="L18">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="M18">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="N18">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D19">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="E19">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="F19">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G19">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="H19">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="J19">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="K19">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="L19">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="M19">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="N19">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="D20">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E20">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="F20">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="G20">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="H20">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="J20">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="K20">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="L20">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="M20">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="N20">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="11" customFormat="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2">
-        <f>ROUND(AVERAGE(C3:C9),3)</f>
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:H21" si="1">ROUND(AVERAGE(D3:D9),3)</f>
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.873</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="I21" s="3">
-        <f>ROUND(AVERAGE(I3:I9),3)</f>
-        <v>0.63</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:N21" si="2">ROUND(AVERAGE(J3:J9),3)</f>
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.748</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
+      <c r="N21" s="25">
+        <f>E21</f>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="O21" s="30">
+        <f>ROUND(AVERAGE(O3:O9),3)</f>
         <v>0.94499999999999995</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="15" thickBot="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="22" spans="1:15" s="11" customFormat="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="25">
         <f>ROUND(AVERAGE(C10:C20),3)</f>
         <v>0.72599999999999998</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:H22" si="3">ROUND(AVERAGE(D10:D20),3)</f>
+      <c r="D22" s="25">
+        <f t="shared" ref="D22:H22" si="2">ROUND(AVERAGE(D10:D20),3)</f>
         <v>0.81399999999999995</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
+      <c r="E22" s="25">
+        <f t="shared" si="2"/>
         <v>0.82599999999999996</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="3"/>
+      <c r="F22" s="25">
+        <f t="shared" si="2"/>
         <v>0.84299999999999997</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
+      <c r="G22" s="25">
+        <f t="shared" si="2"/>
         <v>0.82299999999999995</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="3"/>
+      <c r="H22" s="25">
+        <f t="shared" si="2"/>
         <v>0.85599999999999998</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="25">
         <f>ROUND(AVERAGE(I10:I20),3)</f>
         <v>0.84399999999999997</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22:N22" si="4">ROUND(AVERAGE(J10:J20),3)</f>
+      <c r="J22" s="25">
+        <f t="shared" ref="J22:N22" si="3">ROUND(AVERAGE(J10:J20),3)</f>
         <v>0.79600000000000004</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
+      <c r="K22" s="25">
+        <f t="shared" si="3"/>
         <v>0.81899999999999995</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
+      <c r="L22" s="25">
+        <f t="shared" si="3"/>
         <v>0.78</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
+      <c r="M22" s="25">
+        <f t="shared" si="3"/>
         <v>0.84699999999999998</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
+      <c r="N22" s="25">
+        <f>E22</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="O22" s="30">
+        <f>ROUND(AVERAGE(O10:O20),3)</f>
         <v>0.97399999999999998</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>0.82599999999999996</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A10:A20"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C3:I3">
+    <cfRule type="top10" dxfId="167" priority="98" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:I4">
+    <cfRule type="top10" dxfId="166" priority="97" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:I5">
+    <cfRule type="top10" dxfId="165" priority="96" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:I6">
+    <cfRule type="top10" dxfId="164" priority="95" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:I7">
+    <cfRule type="top10" dxfId="163" priority="94" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:I8">
+    <cfRule type="top10" dxfId="162" priority="93" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I9">
+    <cfRule type="top10" dxfId="161" priority="92" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10">
+    <cfRule type="top10" dxfId="160" priority="91" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11">
+    <cfRule type="top10" dxfId="159" priority="90" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12">
+    <cfRule type="top10" dxfId="158" priority="89" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:I13">
+    <cfRule type="top10" dxfId="157" priority="88" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I14">
+    <cfRule type="top10" dxfId="156" priority="87" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I15">
+    <cfRule type="top10" dxfId="155" priority="86" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="top10" dxfId="154" priority="85" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:I17">
+    <cfRule type="top10" dxfId="153" priority="84" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I18">
+    <cfRule type="top10" dxfId="152" priority="83" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:I19">
+    <cfRule type="top10" dxfId="151" priority="82" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I20">
+    <cfRule type="top10" dxfId="150" priority="81" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:M3">
+    <cfRule type="top10" dxfId="149" priority="61" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:M4">
+    <cfRule type="top10" dxfId="148" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:M5">
+    <cfRule type="top10" dxfId="147" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:M6">
+    <cfRule type="top10" dxfId="146" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:M7">
+    <cfRule type="top10" dxfId="145" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:M8">
+    <cfRule type="top10" dxfId="144" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:M9">
+    <cfRule type="top10" dxfId="143" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:M10">
+    <cfRule type="top10" dxfId="142" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:M11">
+    <cfRule type="top10" dxfId="141" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:M12">
+    <cfRule type="top10" dxfId="140" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:M13">
+    <cfRule type="top10" dxfId="139" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:M14">
+    <cfRule type="top10" dxfId="138" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:M15">
+    <cfRule type="top10" dxfId="137" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:M16">
+    <cfRule type="top10" dxfId="136" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:M17">
+    <cfRule type="top10" dxfId="135" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:M18">
+    <cfRule type="top10" dxfId="134" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:M19">
+    <cfRule type="top10" dxfId="133" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:M20">
+    <cfRule type="top10" dxfId="132" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:M21">
+    <cfRule type="top10" dxfId="131" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:M22">
+    <cfRule type="top10" dxfId="130" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:O3">
+    <cfRule type="top10" dxfId="129" priority="279" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:O4">
+    <cfRule type="top10" dxfId="128" priority="280" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:O5">
+    <cfRule type="top10" dxfId="127" priority="283" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:O6">
+    <cfRule type="top10" dxfId="126" priority="286" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:O7">
+    <cfRule type="top10" dxfId="125" priority="289" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:O8">
+    <cfRule type="top10" dxfId="124" priority="292" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:O9">
+    <cfRule type="top10" dxfId="123" priority="295" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:O10">
+    <cfRule type="top10" dxfId="122" priority="298" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:O11">
+    <cfRule type="top10" dxfId="121" priority="301" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:O12">
+    <cfRule type="top10" dxfId="120" priority="304" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:O13">
+    <cfRule type="top10" dxfId="119" priority="307" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:O14">
+    <cfRule type="top10" dxfId="118" priority="310" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:O15">
+    <cfRule type="top10" dxfId="117" priority="313" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:O16">
+    <cfRule type="top10" dxfId="116" priority="316" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:O17">
+    <cfRule type="top10" dxfId="115" priority="319" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:O18">
+    <cfRule type="top10" dxfId="114" priority="322" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:O19">
+    <cfRule type="top10" dxfId="113" priority="325" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:O20">
+    <cfRule type="top10" dxfId="112" priority="328" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:O21">
+    <cfRule type="top10" dxfId="111" priority="331" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:O22">
+    <cfRule type="top10" dxfId="110" priority="334" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C21:I21">
-    <cfRule type="top10" dxfId="107" priority="102" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:I22">
-    <cfRule type="top10" dxfId="106" priority="101" stopIfTrue="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I3">
-    <cfRule type="top10" dxfId="102" priority="96" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:I4">
-    <cfRule type="top10" dxfId="101" priority="95" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5">
-    <cfRule type="top10" dxfId="100" priority="94" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:I6">
-    <cfRule type="top10" dxfId="99" priority="93" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:I7">
-    <cfRule type="top10" dxfId="98" priority="92" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:I8">
-    <cfRule type="top10" dxfId="97" priority="91" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:I9">
-    <cfRule type="top10" dxfId="96" priority="90" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:I10">
-    <cfRule type="top10" dxfId="95" priority="89" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:I11">
-    <cfRule type="top10" dxfId="94" priority="88" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I12">
-    <cfRule type="top10" dxfId="93" priority="87" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:I13">
-    <cfRule type="top10" dxfId="92" priority="86" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:I14">
-    <cfRule type="top10" dxfId="91" priority="85" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I15">
-    <cfRule type="top10" dxfId="90" priority="84" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:I16">
-    <cfRule type="top10" dxfId="89" priority="83" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:I17">
-    <cfRule type="top10" dxfId="88" priority="82" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:I18">
-    <cfRule type="top10" dxfId="87" priority="81" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:I19">
-    <cfRule type="top10" dxfId="86" priority="80" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:I20">
-    <cfRule type="top10" dxfId="85" priority="79" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:M3">
-    <cfRule type="top10" dxfId="83" priority="59" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:O3">
-    <cfRule type="top10" dxfId="38" priority="39" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:M4">
-    <cfRule type="top10" dxfId="37" priority="38" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:O4">
-    <cfRule type="top10" dxfId="36" priority="37" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M5">
-    <cfRule type="top10" dxfId="35" priority="36" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:O5">
-    <cfRule type="top10" dxfId="34" priority="35" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:M6">
-    <cfRule type="top10" dxfId="33" priority="34" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:O6">
-    <cfRule type="top10" dxfId="32" priority="33" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:M7">
-    <cfRule type="top10" dxfId="31" priority="32" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:O7">
-    <cfRule type="top10" dxfId="30" priority="31" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:M8">
-    <cfRule type="top10" dxfId="29" priority="30" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:O8">
-    <cfRule type="top10" dxfId="28" priority="29" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:M9">
-    <cfRule type="top10" dxfId="27" priority="28" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:O9">
-    <cfRule type="top10" dxfId="26" priority="27" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:M10">
-    <cfRule type="top10" dxfId="25" priority="26" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:O10">
-    <cfRule type="top10" dxfId="24" priority="25" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:M11">
-    <cfRule type="top10" dxfId="23" priority="24" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:O11">
-    <cfRule type="top10" dxfId="22" priority="23" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:M12">
-    <cfRule type="top10" dxfId="21" priority="22" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:O12">
-    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:M13">
-    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:O13">
-    <cfRule type="top10" dxfId="18" priority="19" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:M14">
-    <cfRule type="top10" dxfId="17" priority="18" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:O14">
-    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:M15">
-    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:O15">
-    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:M16">
-    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:O16">
-    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:M17">
-    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:O17">
-    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:M18">
-    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:O18">
-    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:M19">
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:O19">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:M20">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:O20">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:M21">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:O21">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:M22">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:O22">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
